--- a/設計書/基本設計/テーブル定義書.xlsx
+++ b/設計書/基本設計/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE60E931-B847-4674-A43F-F5B4A9B1BE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF19D4-A5A3-4B3C-83B4-3CEEE39874DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -346,10 +346,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>user_table</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>アプリユーザーのアカウントを管理するマスタテーブル</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -375,10 +371,6 @@
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>post_table</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -447,6 +439,14 @@
   </si>
   <si>
     <t>投稿した内容</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>user_data</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>post_data</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1173,6 +1173,42 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
@@ -1200,122 +1236,86 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1838,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9:Q10"/>
     </sheetView>
   </sheetViews>
@@ -2424,20 +2424,20 @@
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
       <c r="E8" s="45"/>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="61"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="73"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
@@ -2456,26 +2456,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="40"/>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="68" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="70"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="82"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -2494,22 +2494,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="40"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="85"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -2720,26 +2720,26 @@
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
@@ -2755,24 +2755,24 @@
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
@@ -2788,24 +2788,24 @@
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
-      <c r="X19" s="77"/>
-      <c r="Y19" s="77"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
       <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
@@ -3033,12 +3033,12 @@
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
       <c r="E26" s="48"/>
-      <c r="F26" s="74">
+      <c r="F26" s="86">
         <v>45942</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="47" t="s">
         <v>30</v>
       </c>
@@ -3670,8 +3670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21:L21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3695,25 +3695,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="116"/>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81" t="s">
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="79"/>
-      <c r="K1" s="80"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="115"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3722,23 +3722,23 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
       <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
@@ -3747,44 +3747,44 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="93"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="96"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="106"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="7"/>
@@ -3824,10 +3824,10 @@
       <c r="J6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="98"/>
+      <c r="L6" s="108"/>
       <c r="M6" s="13" t="s">
         <v>1</v>
       </c>
@@ -3843,10 +3843,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>36</v>
@@ -3869,10 +3869,10 @@
       <c r="J7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="99" t="s">
+      <c r="K7" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="100"/>
+      <c r="L7" s="110"/>
       <c r="M7" s="23" t="s">
         <v>37</v>
       </c>
@@ -3888,10 +3888,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>47</v>
@@ -3914,10 +3914,10 @@
       <c r="J8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="102"/>
+      <c r="K8" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="91"/>
       <c r="M8" s="23" t="s">
         <v>37</v>
       </c>
@@ -3959,10 +3959,10 @@
       <c r="J9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="85" t="s">
+      <c r="K9" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="86"/>
+      <c r="L9" s="93"/>
       <c r="M9" s="23" t="s">
         <v>37</v>
       </c>
@@ -4004,10 +4004,10 @@
       <c r="J10" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="85" t="s">
+      <c r="K10" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="86"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="23" t="s">
         <v>37</v>
       </c>
@@ -4019,87 +4019,87 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A11" s="108">
+      <c r="A11" s="64">
         <v>5</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="112" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="111" t="s">
+      <c r="E11" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="113" t="s">
+      <c r="G11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="114"/>
-      <c r="M11" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="110" t="s">
+      <c r="L11" s="112"/>
+      <c r="M11" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="O11" s="116" t="s">
+      <c r="O11" s="70" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75">
-      <c r="A12" s="107"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="116"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81" t="s">
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="80"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="115"/>
       <c r="L13" s="2" t="s">
         <v>6</v>
       </c>
@@ -4108,23 +4108,23 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="82"/>
-      <c r="K14" s="83"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
       <c r="L14" s="5" t="s">
         <v>20</v>
       </c>
@@ -4133,44 +4133,44 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="103"/>
     </row>
     <row r="16" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="106"/>
     </row>
     <row r="17" spans="1:15" ht="20.25" customHeight="1">
       <c r="B17" s="7"/>
@@ -4210,10 +4210,10 @@
       <c r="J18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="97" t="s">
+      <c r="K18" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="98"/>
+      <c r="L18" s="108"/>
       <c r="M18" s="13" t="s">
         <v>1</v>
       </c>
@@ -4229,10 +4229,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>36</v>
@@ -4255,10 +4255,10 @@
       <c r="J19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="99" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="100"/>
+      <c r="K19" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="110"/>
       <c r="M19" s="23" t="s">
         <v>37</v>
       </c>
@@ -4274,10 +4274,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>36</v>
@@ -4300,10 +4300,10 @@
       <c r="J20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="101" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="102"/>
+      <c r="K20" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="91"/>
       <c r="M20" s="23" t="s">
         <v>37</v>
       </c>
@@ -4319,10 +4319,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>47</v>
@@ -4345,10 +4345,10 @@
       <c r="J21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="86"/>
+      <c r="K21" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="93"/>
       <c r="M21" s="23" t="s">
         <v>37</v>
       </c>
@@ -4390,10 +4390,10 @@
       <c r="J22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K22" s="85" t="s">
+      <c r="K22" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="86"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="23" t="s">
         <v>37</v>
       </c>
@@ -4406,14 +4406,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:P16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A3:B4"/>
@@ -4426,11 +4423,14 @@
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:P16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/設計書/基本設計/テーブル定義書.xlsx
+++ b/設計書/基本設計/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EF19D4-A5A3-4B3C-83B4-3CEEE39874DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849FB0E0-389C-4B2B-B4CC-1465351D3ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/設計書/基本設計/テーブル定義書.xlsx
+++ b/設計書/基本設計/テーブル定義書.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849FB0E0-389C-4B2B-B4CC-1465351D3ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D6055-19BF-4C98-8BCD-C344151038DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
     <sheet name="取引先マスタ" sheetId="164" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'表紙 '!$A$1:$AF$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'表紙 '!$1:$1</definedName>
     <definedName name="範囲１">#REF!</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
   <si>
     <t>説明／備考</t>
   </si>
@@ -139,13 +139,6 @@
       <t>サクセイビ</t>
     </rPh>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="15"/>
   </si>
   <si>
     <t>システム名</t>
@@ -244,13 +237,6 @@
     <t>若狭</t>
     <rPh sb="0" eb="2">
       <t>ワカサ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>株式会社D.I様</t>
-    <rPh sb="7" eb="8">
-      <t>サマ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1041,7 +1027,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1153,9 +1139,6 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1209,9 +1192,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1236,86 +1216,86 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1836,16 +1816,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
-  <dimension ref="A1:FT43"/>
+  <dimension ref="A1:FT42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:Q10"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.125" style="30" customWidth="1"/>
-    <col min="5" max="6" width="4.125" style="56" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="53" customWidth="1"/>
     <col min="7" max="32" width="4.125" style="30" customWidth="1"/>
     <col min="33" max="36" width="4" style="30" customWidth="1"/>
     <col min="37" max="256" width="9" style="30"/>
@@ -2418,26 +2396,26 @@
     </row>
     <row r="8" spans="1:176" ht="12.95" customHeight="1">
       <c r="A8" s="40"/>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="73"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
@@ -2456,35 +2434,28 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="40"/>
-      <c r="B9" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="82"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
       <c r="U9" s="37"/>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
       <c r="AA9" s="37"/>
       <c r="AB9" s="37"/>
       <c r="AC9" s="37"/>
@@ -2494,22 +2465,21 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="40"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="85"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="Q10" s="37"/>
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -2576,6 +2546,9 @@
       <c r="U12" s="37"/>
       <c r="V12" s="37"/>
       <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
       <c r="AA12" s="37"/>
       <c r="AB12" s="37"/>
       <c r="AC12" s="37"/>
@@ -2672,9 +2645,6 @@
       <c r="U15" s="37"/>
       <c r="V15" s="37"/>
       <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
       <c r="AA15" s="37"/>
       <c r="AB15" s="37"/>
       <c r="AC15" s="37"/>
@@ -2690,21 +2660,26 @@
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
+      <c r="H16" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
       <c r="AA16" s="37"/>
       <c r="AB16" s="37"/>
       <c r="AC16" s="37"/>
@@ -2720,26 +2695,24 @@
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
-      <c r="H17" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
       <c r="AA17" s="37"/>
       <c r="AB17" s="37"/>
       <c r="AC17" s="37"/>
@@ -2755,24 +2728,25 @@
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
@@ -2788,24 +2762,23 @@
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
       <c r="Z19" s="37"/>
       <c r="AA19" s="37"/>
       <c r="AB19" s="37"/>
@@ -2882,7 +2855,9 @@
     </row>
     <row r="22" spans="1:32" ht="12.95" customHeight="1">
       <c r="A22" s="40"/>
-      <c r="B22" s="37"/>
+      <c r="B22" s="43" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
@@ -2915,9 +2890,7 @@
     </row>
     <row r="23" spans="1:32" ht="12.95" customHeight="1">
       <c r="A23" s="40"/>
-      <c r="B23" s="46" t="s">
-        <v>23</v>
-      </c>
+      <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
@@ -2950,710 +2923,676 @@
     </row>
     <row r="24" spans="1:32" ht="12.95" customHeight="1">
       <c r="A24" s="40"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="37"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="37"/>
+      <c r="B24" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD24" s="46" t="s">
+        <v>27</v>
+      </c>
       <c r="AE24" s="37"/>
       <c r="AF24" s="42"/>
     </row>
     <row r="25" spans="1:32" ht="12.95" customHeight="1">
       <c r="A25" s="40"/>
-      <c r="B25" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
-      <c r="AB25" s="49"/>
-      <c r="AC25" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD25" s="49" t="s">
+      <c r="B25" s="44" t="s">
         <v>28</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="80">
+        <v>45942</v>
+      </c>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD25" s="46" t="s">
+        <v>33</v>
       </c>
       <c r="AE25" s="37"/>
       <c r="AF25" s="42"/>
     </row>
     <row r="26" spans="1:32" ht="12.95" customHeight="1">
       <c r="A26" s="40"/>
-      <c r="B26" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="86">
-        <v>45942</v>
-      </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
-      <c r="AB26" s="49"/>
-      <c r="AC26" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD26" s="49" t="s">
-        <v>34</v>
-      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="48"/>
+      <c r="AD26" s="46"/>
       <c r="AE26" s="37"/>
       <c r="AF26" s="42"/>
     </row>
     <row r="27" spans="1:32" ht="12.95" customHeight="1">
       <c r="A27" s="40"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="48"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
-      <c r="AB27" s="49"/>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="49"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="46"/>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="46"/>
       <c r="AE27" s="37"/>
       <c r="AF27" s="42"/>
     </row>
     <row r="28" spans="1:32" ht="12.95" customHeight="1">
       <c r="A28" s="40"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="49"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="49"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="45"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="45"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="46"/>
       <c r="AE28" s="37"/>
       <c r="AF28" s="42"/>
     </row>
     <row r="29" spans="1:32" ht="12.95" customHeight="1">
       <c r="A29" s="40"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
-      <c r="AB29" s="49"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="49"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="45"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="48"/>
+      <c r="AD29" s="46"/>
       <c r="AE29" s="37"/>
       <c r="AF29" s="42"/>
     </row>
     <row r="30" spans="1:32" ht="12.95" customHeight="1">
       <c r="A30" s="40"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
-      <c r="AB30" s="49"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="49"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="45"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="46"/>
       <c r="AE30" s="37"/>
       <c r="AF30" s="42"/>
     </row>
     <row r="31" spans="1:32" ht="12.95" customHeight="1">
       <c r="A31" s="40"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="49"/>
-      <c r="AC31" s="51"/>
-      <c r="AD31" s="49"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="45"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="45"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="46"/>
       <c r="AE31" s="37"/>
       <c r="AF31" s="42"/>
     </row>
     <row r="32" spans="1:32" ht="12.95" customHeight="1">
       <c r="A32" s="40"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="48"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="49"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="49"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="46"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="46"/>
       <c r="AE32" s="37"/>
       <c r="AF32" s="42"/>
     </row>
     <row r="33" spans="1:32" ht="12.95" customHeight="1">
       <c r="A33" s="40"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="48"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
-      <c r="AB33" s="49"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="49"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="45"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="45"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="46"/>
       <c r="AE33" s="37"/>
       <c r="AF33" s="42"/>
     </row>
     <row r="34" spans="1:32" ht="12.95" customHeight="1">
       <c r="A34" s="40"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="49"/>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="49"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="46"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="46"/>
       <c r="AE34" s="37"/>
       <c r="AF34" s="42"/>
     </row>
     <row r="35" spans="1:32" ht="12.95" customHeight="1">
       <c r="A35" s="40"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="48"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="49"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="49"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="45"/>
+      <c r="V35" s="45"/>
+      <c r="W35" s="45"/>
+      <c r="X35" s="45"/>
+      <c r="Y35" s="45"/>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="46"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="46"/>
       <c r="AE35" s="37"/>
       <c r="AF35" s="42"/>
     </row>
     <row r="36" spans="1:32" ht="12.95" customHeight="1">
       <c r="A36" s="40"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="51"/>
-      <c r="AD36" s="49"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45"/>
+      <c r="V36" s="45"/>
+      <c r="W36" s="45"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="46"/>
       <c r="AE36" s="37"/>
       <c r="AF36" s="42"/>
     </row>
     <row r="37" spans="1:32" ht="12.95" customHeight="1">
       <c r="A37" s="40"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="49"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="46"/>
       <c r="AE37" s="37"/>
       <c r="AF37" s="42"/>
     </row>
     <row r="38" spans="1:32" ht="12.95" customHeight="1">
       <c r="A38" s="40"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="48"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="48"/>
-      <c r="AA38" s="48"/>
-      <c r="AB38" s="49"/>
-      <c r="AC38" s="51"/>
-      <c r="AD38" s="49"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="46"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="46"/>
       <c r="AE38" s="37"/>
       <c r="AF38" s="42"/>
     </row>
     <row r="39" spans="1:32" ht="12.95" customHeight="1">
       <c r="A39" s="40"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="48"/>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="49"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="49"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="46"/>
       <c r="AE39" s="37"/>
       <c r="AF39" s="42"/>
     </row>
     <row r="40" spans="1:32" ht="12.95" customHeight="1">
       <c r="A40" s="40"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
-      <c r="N40" s="48"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="48"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="48"/>
-      <c r="Z40" s="48"/>
-      <c r="AA40" s="48"/>
-      <c r="AB40" s="49"/>
-      <c r="AC40" s="51"/>
-      <c r="AD40" s="49"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="46"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="46"/>
       <c r="AE40" s="37"/>
       <c r="AF40" s="42"/>
     </row>
     <row r="41" spans="1:32" ht="12.95" customHeight="1">
       <c r="A41" s="40"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
-      <c r="N41" s="48"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="48"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="48"/>
-      <c r="Z41" s="48"/>
-      <c r="AA41" s="48"/>
-      <c r="AB41" s="49"/>
-      <c r="AC41" s="51"/>
-      <c r="AD41" s="49"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="45"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="45"/>
+      <c r="X41" s="45"/>
+      <c r="Y41" s="45"/>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="46"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="46"/>
       <c r="AE41" s="37"/>
       <c r="AF41" s="42"/>
     </row>
     <row r="42" spans="1:32" ht="12.95" customHeight="1">
-      <c r="A42" s="40"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
-      <c r="N42" s="48"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="48"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="48"/>
-      <c r="Z42" s="48"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="49"/>
-      <c r="AC42" s="51"/>
-      <c r="AD42" s="49"/>
-      <c r="AE42" s="37"/>
-      <c r="AF42" s="42"/>
-    </row>
-    <row r="43" spans="1:32" ht="12.95" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-      <c r="Y43" s="53"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="55"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="50"/>
+      <c r="V42" s="50"/>
+      <c r="W42" s="50"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50"/>
+      <c r="AB42" s="50"/>
+      <c r="AC42" s="50"/>
+      <c r="AD42" s="50"/>
+      <c r="AE42" s="50"/>
+      <c r="AF42" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F9:Q10"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="H17:Y19"/>
+  <mergeCells count="4">
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:Q9"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="H16:Y18"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -3670,7 +3609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I14" sqref="I14:K14"/>
     </sheetView>
   </sheetViews>
@@ -3695,50 +3634,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="113" t="s">
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="57" t="s">
-        <v>33</v>
+      <c r="M1" s="54" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="94" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+        <v>31</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
@@ -3747,44 +3686,44 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="103"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="106"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="102"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="7"/>
@@ -3806,8 +3745,8 @@
       <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="58" t="s">
-        <v>55</v>
+      <c r="E6" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>19</v>
@@ -3824,10 +3763,10 @@
       <c r="J6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="107" t="s">
+      <c r="K6" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="108"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="13" t="s">
         <v>1</v>
       </c>
@@ -3843,13 +3782,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" s="22">
         <v>100</v>
@@ -3867,20 +3806,20 @@
         <v>16</v>
       </c>
       <c r="J7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="106"/>
+      <c r="M7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="O7" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="L7" s="110"/>
-      <c r="M7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="25" customFormat="1" ht="31.5" customHeight="1">
@@ -3888,13 +3827,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="22">
         <v>100</v>
@@ -3903,29 +3842,29 @@
         <v>16</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="91"/>
+        <v>35</v>
+      </c>
+      <c r="K8" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="110"/>
       <c r="M8" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N8" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="25" customFormat="1" ht="31.5" customHeight="1">
@@ -3933,13 +3872,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" s="22">
         <v>255</v>
@@ -3948,29 +3887,29 @@
         <v>16</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="93"/>
+        <v>35</v>
+      </c>
+      <c r="K9" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="108"/>
       <c r="M9" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="25" customFormat="1" ht="31.5" customHeight="1">
@@ -3978,13 +3917,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="22">
         <v>255</v>
@@ -3993,138 +3932,138 @@
         <v>16</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="108"/>
+      <c r="M10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A11" s="61">
+        <v>5</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="92"/>
+      <c r="M11" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="93"/>
-      <c r="M10" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="24" t="s">
+      <c r="O11" s="67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A11" s="64">
-        <v>5</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="70" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="12" spans="1:16" ht="15.75">
-      <c r="A12" s="63"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="116"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="113" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="57" t="s">
-        <v>33</v>
+      <c r="M13" s="54" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
+        <v>61</v>
+      </c>
+      <c r="D14" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="5" t="s">
         <v>20</v>
       </c>
@@ -4133,44 +4072,44 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="103"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="99"/>
     </row>
     <row r="16" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="106"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="102"/>
     </row>
     <row r="17" spans="1:15" ht="20.25" customHeight="1">
       <c r="B17" s="7"/>
@@ -4192,8 +4131,8 @@
       <c r="D18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>55</v>
+      <c r="E18" s="55" t="s">
+        <v>53</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>19</v>
@@ -4210,10 +4149,10 @@
       <c r="J18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="107" t="s">
+      <c r="K18" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="108"/>
+      <c r="L18" s="104"/>
       <c r="M18" s="13" t="s">
         <v>1</v>
       </c>
@@ -4229,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="22">
         <v>100</v>
@@ -4253,20 +4192,20 @@
         <v>16</v>
       </c>
       <c r="J19" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="106"/>
+      <c r="M19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="110"/>
-      <c r="M19" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" s="20" t="s">
-        <v>39</v>
-      </c>
       <c r="O19" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="25" customFormat="1" ht="31.5" customHeight="1">
@@ -4274,13 +4213,13 @@
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="22">
         <v>100</v>
@@ -4292,26 +4231,26 @@
         <v>16</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K20" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="91"/>
+        <v>35</v>
+      </c>
+      <c r="K20" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="110"/>
       <c r="M20" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O20" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="25" customFormat="1" ht="31.5" customHeight="1">
@@ -4319,13 +4258,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="22">
         <v>500</v>
@@ -4334,29 +4273,29 @@
         <v>16</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="93"/>
+        <v>35</v>
+      </c>
+      <c r="K21" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="108"/>
       <c r="M21" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="31.5" customHeight="1">
@@ -4364,53 +4303,56 @@
         <v>5</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>48</v>
-      </c>
       <c r="E22" s="22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="93"/>
+        <v>35</v>
+      </c>
+      <c r="K22" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="108"/>
       <c r="M22" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O22" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:P16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A3:B4"/>
@@ -4423,14 +4365,11 @@
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:P16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/設計書/基本設計/テーブル定義書.xlsx
+++ b/設計書/基本設計/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067D6055-19BF-4C98-8BCD-C344151038DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834F233-613A-4233-995A-D176FAFBA9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>registered_time</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -433,6 +429,10 @@
   </si>
   <si>
     <t>post_data</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>insert_date</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1216,86 +1216,86 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2403,7 +2403,7 @@
       <c r="D8" s="69"/>
       <c r="E8" s="70"/>
       <c r="F8" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="75"/>
       <c r="H8" s="75"/>
@@ -3610,7 +3610,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:K14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3634,25 +3634,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="110"/>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="87" t="s">
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="109"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3661,23 +3661,23 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="90" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="D2" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
@@ -3686,44 +3686,44 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="99"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="102"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="100"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="7"/>
@@ -3746,7 +3746,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>19</v>
@@ -3763,10 +3763,10 @@
       <c r="J6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="103" t="s">
+      <c r="K6" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="104"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="13" t="s">
         <v>1</v>
       </c>
@@ -3782,10 +3782,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>34</v>
@@ -3808,10 +3808,10 @@
       <c r="J7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="105" t="s">
+      <c r="K7" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="106"/>
+      <c r="L7" s="104"/>
       <c r="M7" s="23" t="s">
         <v>35</v>
       </c>
@@ -3827,13 +3827,13 @@
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>59</v>
-      </c>
       <c r="D8" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="22">
         <v>100</v>
@@ -3853,10 +3853,10 @@
       <c r="J8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="110"/>
+      <c r="K8" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="85"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="22">
         <v>255</v>
@@ -3898,10 +3898,10 @@
       <c r="J9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" s="108"/>
+      <c r="K9" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="87"/>
       <c r="M9" s="23" t="s">
         <v>35</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>43</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="22">
         <v>255</v>
@@ -3943,18 +3943,18 @@
       <c r="J10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="107" t="s">
+      <c r="K10" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="87"/>
+      <c r="M10" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="108"/>
-      <c r="M10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="31.5" customHeight="1">
@@ -3965,10 +3965,10 @@
         <v>41</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="65" t="s">
         <v>35</v>
@@ -3988,18 +3988,18 @@
       <c r="J11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="91" t="s">
+      <c r="K11" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="92"/>
+      <c r="L11" s="106"/>
       <c r="M11" s="66" t="s">
         <v>35</v>
       </c>
       <c r="N11" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="67" t="s">
         <v>50</v>
-      </c>
-      <c r="O11" s="67" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75">
@@ -4020,25 +4020,25 @@
       <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="87" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="109"/>
       <c r="L13" s="2" t="s">
         <v>6</v>
       </c>
@@ -4047,23 +4047,23 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="90" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
       <c r="L14" s="5" t="s">
         <v>20</v>
       </c>
@@ -4072,44 +4072,44 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="99"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="97"/>
     </row>
     <row r="16" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A16" s="95"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="102"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
     </row>
     <row r="17" spans="1:15" ht="20.25" customHeight="1">
       <c r="B17" s="7"/>
@@ -4132,7 +4132,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>19</v>
@@ -4149,10 +4149,10 @@
       <c r="J18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="103" t="s">
+      <c r="K18" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="104"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="13" t="s">
         <v>1</v>
       </c>
@@ -4168,10 +4168,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>65</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>34</v>
@@ -4194,10 +4194,10 @@
       <c r="J19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="106"/>
+      <c r="K19" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="104"/>
       <c r="M19" s="23" t="s">
         <v>35</v>
       </c>
@@ -4213,10 +4213,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>34</v>
@@ -4239,10 +4239,10 @@
       <c r="J20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="110"/>
+      <c r="K20" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="85"/>
       <c r="M20" s="23" t="s">
         <v>35</v>
       </c>
@@ -4258,13 +4258,13 @@
         <v>3</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="22">
         <v>500</v>
@@ -4284,10 +4284,10 @@
       <c r="J21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="107" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="108"/>
+      <c r="K21" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="87"/>
       <c r="M21" s="23" t="s">
         <v>35</v>
       </c>
@@ -4306,10 +4306,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>35</v>
@@ -4329,30 +4329,27 @@
       <c r="J22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="107" t="s">
+      <c r="K22" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="108"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="23" t="s">
         <v>35</v>
       </c>
       <c r="N22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:P16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A3:B4"/>
@@ -4365,11 +4362,14 @@
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:P16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>

--- a/設計書/基本設計/テーブル定義書.xlsx
+++ b/設計書/基本設計/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834F233-613A-4233-995A-D176FAFBA9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C61D710-F812-4B15-A78E-0FECA8EA30B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16335" yWindow="0" windowWidth="9810" windowHeight="15480" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="76">
   <si>
     <t>説明／備考</t>
   </si>
@@ -433,6 +433,20 @@
   </si>
   <si>
     <t>insert_date</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>データ項目名修正</t>
+    <rPh sb="3" eb="6">
+      <t>コウモクメイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>post_date</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1818,7 +1832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
   <dimension ref="A1:FT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="R1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25:AD26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
   <cols>
@@ -3015,11 +3031,15 @@
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="44"/>
+      <c r="F26" s="80">
+        <v>45943</v>
+      </c>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="44" t="s">
+        <v>74</v>
+      </c>
       <c r="K26" s="45"/>
       <c r="L26" s="45"/>
       <c r="M26" s="45"/>
@@ -3038,8 +3058,12 @@
       <c r="Z26" s="45"/>
       <c r="AA26" s="45"/>
       <c r="AB26" s="46"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="46"/>
+      <c r="AC26" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD26" s="46" t="s">
+        <v>33</v>
+      </c>
       <c r="AE26" s="37"/>
       <c r="AF26" s="42"/>
     </row>
@@ -3588,11 +3612,12 @@
       <c r="AF42" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F8:Q9"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="H16:Y18"/>
+    <mergeCell ref="F26:I26"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -3610,7 +3635,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -4306,7 +4331,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>45</v>

--- a/設計書/基本設計/テーブル定義書.xlsx
+++ b/設計書/基本設計/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ToDoList\設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C61D710-F812-4B15-A78E-0FECA8EA30B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CAA8DE-1D2E-4D15-9B50-44995659BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16335" yWindow="0" windowWidth="9810" windowHeight="15480" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="165" r:id="rId1"/>
@@ -1230,86 +1230,86 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1832,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8C5E07-C728-4F0F-892B-380398005DB8}">
   <dimension ref="A1:FT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="R1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25:AD26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AW41" sqref="AW41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -3635,7 +3635,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28.5" customHeight="1"/>
@@ -3659,25 +3659,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="110"/>
+      <c r="B1" s="84"/>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="107" t="s">
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="109"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
@@ -3686,23 +3686,23 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
       <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="88" t="s">
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="5" t="s">
         <v>20</v>
       </c>
@@ -3711,44 +3711,44 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="94"/>
+      <c r="C3" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="99"/>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="100"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="102"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="7"/>
@@ -3788,10 +3788,10 @@
       <c r="J6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="101" t="s">
+      <c r="K6" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L6" s="102"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="13" t="s">
         <v>1</v>
       </c>
@@ -3833,10 +3833,10 @@
       <c r="J7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="104"/>
+      <c r="L7" s="106"/>
       <c r="M7" s="23" t="s">
         <v>35</v>
       </c>
@@ -3878,10 +3878,10 @@
       <c r="J8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="84" t="s">
+      <c r="K8" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="85"/>
+      <c r="L8" s="110"/>
       <c r="M8" s="23" t="s">
         <v>35</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>35</v>
@@ -3923,10 +3923,10 @@
       <c r="J9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="87"/>
+      <c r="L9" s="108"/>
       <c r="M9" s="23" t="s">
         <v>35</v>
       </c>
@@ -3968,10 +3968,10 @@
       <c r="J10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="86" t="s">
+      <c r="K10" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="87"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="23" t="s">
         <v>35</v>
       </c>
@@ -4013,10 +4013,10 @@
       <c r="J11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="105" t="s">
+      <c r="K11" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="106"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="66" t="s">
         <v>35</v>
       </c>
@@ -4045,25 +4045,25 @@
       <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="110"/>
+      <c r="B13" s="84"/>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="107" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="108"/>
-      <c r="K13" s="109"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
       <c r="L13" s="2" t="s">
         <v>6</v>
       </c>
@@ -4072,23 +4072,23 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A14" s="110"/>
-      <c r="B14" s="110"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="88" t="s">
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
       <c r="L14" s="5" t="s">
         <v>20</v>
       </c>
@@ -4097,44 +4097,44 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="95" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="99"/>
     </row>
     <row r="16" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="100"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="101"/>
+      <c r="P16" s="102"/>
     </row>
     <row r="17" spans="1:15" ht="20.25" customHeight="1">
       <c r="B17" s="7"/>
@@ -4174,10 +4174,10 @@
       <c r="J18" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="101" t="s">
+      <c r="K18" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="102"/>
+      <c r="L18" s="104"/>
       <c r="M18" s="13" t="s">
         <v>1</v>
       </c>
@@ -4219,10 +4219,10 @@
       <c r="J19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="103" t="s">
+      <c r="K19" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="104"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="23" t="s">
         <v>35</v>
       </c>
@@ -4264,10 +4264,10 @@
       <c r="J20" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="84" t="s">
+      <c r="K20" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="85"/>
+      <c r="L20" s="110"/>
       <c r="M20" s="23" t="s">
         <v>35</v>
       </c>
@@ -4309,10 +4309,10 @@
       <c r="J21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="86" t="s">
+      <c r="K21" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="108"/>
       <c r="M21" s="23" t="s">
         <v>35</v>
       </c>
@@ -4354,10 +4354,10 @@
       <c r="J22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="86" t="s">
+      <c r="K22" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="87"/>
+      <c r="L22" s="108"/>
       <c r="M22" s="23" t="s">
         <v>35</v>
       </c>
@@ -4370,11 +4370,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:P16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A3:B4"/>
@@ -4387,14 +4390,11 @@
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D14:H14"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:P16"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.35433070866141736" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.23622047244094491" footer="0.23622047244094491"/>
